--- a/vakken_calculations.xlsx
+++ b/vakken_calculations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corneeldenhartogh/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corneeldenhartogh/Heuristics2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -170,9 +170,6 @@
     <t xml:space="preserve"> -10*(amount activities in subject - 1) leads to - 430. Sum of student amount in each activity - 20</t>
   </si>
   <si>
-    <t xml:space="preserve">(space is the smallest room) = 3370 - 20 lead to - 3350. Student conflicts are: amount of students in subject </t>
-  </si>
-  <si>
     <t xml:space="preserve"> * (amount activities in subject - 1) + an extra minus point for every additional subject a student needs to </t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(space of the smallest room) = 3370 - 20 lead to - 3350. Student conflicts are: amount of students in subject </t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,47 +564,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -619,17 +619,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -2229,7 +2229,7 @@
         <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
         <v>42</v>
@@ -2266,7 +2266,7 @@
         <v>38</v>
       </c>
       <c r="Q53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R53">
         <v>52.762</v>
@@ -2274,20 +2274,20 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
         <v>62</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>63</v>
-      </c>
-      <c r="D54" t="s">
-        <v>64</v>
       </c>
       <c r="J54">
         <f>SUM(J50:J53)</f>
         <v>801</v>
       </c>
       <c r="Q54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R54">
         <v>675</v>
